--- a/src/main/resources/templates/api-spec-template.xlsx
+++ b/src/main/resources/templates/api-spec-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC91697-591E-42A5-8512-7B5F3315824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4C4E3-FA74-4438-8E4B-F54FA6F0547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${requestParameter.level}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${requestParameter.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,11 +419,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${responseParameter.level}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.levelValue}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.levelValue}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +568,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBF25E-38EB-494C-8F98-0B2C3095EFA3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -917,96 +923,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1017,14 +1023,14 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1075,14 +1081,14 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1105,23 +1111,23 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,24 +1139,24 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -1161,14 +1167,14 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1183,28 +1189,28 @@
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
+      <c r="A23" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1215,24 +1221,24 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>

--- a/src/main/resources/templates/api-spec-template.xlsx
+++ b/src/main/resources/templates/api-spec-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4C4E3-FA74-4438-8E4B-F54FA6F0547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D3E8F-9FC1-46F0-9384-259C60B677B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>API URI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,13 +300,6 @@
     <t>必要</t>
   </si>
   <si>
-    <t>欄位名稱及說明</t>
-  </si>
-  <si>
-    <t>欄位名稱及說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上行電文規格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>參數位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,11 +412,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${requestParameter.levelValue}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.levelValue}</t>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.sequence}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.sequence}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,6 +564,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,9 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBF25E-38EB-494C-8F98-0B2C3095EFA3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -923,96 +916,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1023,18 +1016,18 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1049,27 +1042,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,18 +1074,18 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1107,27 +1100,27 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,24 +1132,24 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -1167,18 +1160,18 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1189,28 +1182,28 @@
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>43</v>
+      <c r="A23" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1221,24 +1214,24 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>

--- a/src/main/resources/templates/api-spec-template.xlsx
+++ b/src/main/resources/templates/api-spec-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D3E8F-9FC1-46F0-9384-259C60B677B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A881776-F737-4284-9796-E2E18BD3B510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
+    <workbookView xWindow="0" yWindow="1785" windowWidth="21600" windowHeight="11265" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="3" r:id="rId1"/>
@@ -262,64 +262,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>API URI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服務說明</t>
-  </si>
-  <si>
-    <t>服務名稱</t>
-  </si>
-  <si>
     <t>HTTP METHOD</t>
   </si>
   <si>
     <t>CONTENT-TYPE</t>
   </si>
   <si>
-    <t>API資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>資料型態</t>
-  </si>
-  <si>
-    <t>最大長度</t>
-  </si>
-  <si>
-    <t>必要</t>
-  </si>
-  <si>
-    <t>上行電文規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上行電文範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行／回應電文規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行／回應電文範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${sheetParameter.path}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>參數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +371,70 @@
   </si>
   <si>
     <t>${responseParameter.sequence}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request body sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response body sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.index}. ${sheetParameter.summary}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,13 +466,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -472,13 +479,46 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -539,50 +579,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,345 +959,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBF25E-38EB-494C-8F98-0B2C3095EFA3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="C22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
